--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePasswordError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePasswordError.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +151,22 @@
     <rPh sb="6" eb="7">
       <t>mi mabu yi zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,13 +547,19 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -546,14 +569,20 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -569,14 +598,20 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -592,14 +627,20 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -615,14 +656,20 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -638,10 +685,16 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePasswordError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidatePasswordError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,11 +162,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>####</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +544,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -570,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -599,10 +623,10 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -628,10 +652,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -660,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -686,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
